--- a/src/main/resources/excel-template/sign1.xlsx
+++ b/src/main/resources/excel-template/sign1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBD26F-A8E2-4851-B812-142902E22FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53F84F-53F2-42A8-82A2-899A5518BCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,21 +278,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.deliverTime</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>t.clearInfo}}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -602,24 +587,28 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>t.isSubmit=='true'?是:否</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_record=='true'?是:否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.isNetSign=='true'?是:否</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.commission=='true'?是:否</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>预告抵押登记号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd:(t.deliverTime;yyyy-MM-dd)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.commissionStr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.isNetSignStr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_recordStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.isSubmitStr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -948,6 +937,69 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,18 +1007,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,58 +1021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1314,9 +1303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1341,228 +1330,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
+      <c r="A1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="44" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
     </row>
     <row r="3" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="38" t="s">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AB3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="45" t="s">
+      <c r="AD3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="45" t="s">
+      <c r="AE3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="45" t="s">
+      <c r="AF3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="45" t="s">
+      <c r="AG3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AH3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="45" t="s">
+      <c r="AI3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="48" t="s">
+      <c r="AK3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="48" t="s">
+      <c r="AL3" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1573,7 +1562,7 @@
         <v>41</v>
       </c>
       <c r="X4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>42</v>
@@ -1581,67 +1570,67 @@
       <c r="Z4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
     </row>
     <row r="5" spans="1:38" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>44</v>
@@ -1659,16 +1648,16 @@
         <v>48</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="17" t="s">
         <v>82</v>
@@ -1683,31 +1672,31 @@
         <v>51</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AG5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AH5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="AI5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="AK5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1719,21 +1708,22 @@
     <filterColumn colId="24" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
@@ -1743,22 +1733,21 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:AC2"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">

--- a/src/main/resources/excel-template/sign1.xlsx
+++ b/src/main/resources/excel-template/sign1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53F84F-53F2-42A8-82A2-899A5518BCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A06E7A-027C-4691-95C3-774B7CE380EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,23 +426,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sex</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>mobile</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -608,6 +591,10 @@
   </si>
   <si>
     <t>t.isSubmitStr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex==1?男:女</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -615,12 +602,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,124 +857,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,20 +939,29 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1303,399 +1242,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="4"/>
+    <col min="13" max="13" width="11.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="12.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="4" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="4"/>
+    <col min="24" max="24" width="7.77734375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" style="4" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="4"/>
+    <col min="28" max="28" width="10.44140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="4"/>
+    <col min="30" max="30" width="12.77734375" style="4" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" style="4" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11" style="4" customWidth="1"/>
+    <col min="35" max="35" width="10.21875" style="4" customWidth="1"/>
+    <col min="36" max="36" width="13" style="4" customWidth="1"/>
+    <col min="37" max="37" width="10.21875" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
+      <c r="A1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:38" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="4" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="48" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="21" t="s">
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
     </row>
     <row r="3" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="25" t="s">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AK3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="23" t="s">
+      <c r="AL3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="5" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+    </row>
+    <row r="5" spans="1:38" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-    </row>
-    <row r="5" spans="1:38" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AJ5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AK5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AL5" s="30" t="s">
         <v>52</v>
       </c>
     </row>
